--- a/step07)_plot_km_curves/patients_all/pid_tmb_pred.xlsx
+++ b/step07)_plot_km_curves/patients_all/pid_tmb_pred.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hongming\projects\tcga-bladder-mutationburden\tcga_tmb_prediction\step07)_plot_km_curves\patients_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71528D-5730-4E35-9828-A1401A8079C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94ABD2B-C62B-41C2-BBC9-069BC2A1E14A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{7D8FB206-9D6F-4AF7-A1B4-0F5774E797FC}"/>
+    <workbookView xWindow="9180" yWindow="2205" windowWidth="12330" windowHeight="8955" xr2:uid="{7D8FB206-9D6F-4AF7-A1B4-0F5774E797FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="388">
   <si>
     <t>patient_names</t>
   </si>
@@ -1197,15 +1197,6 @@
   </si>
   <si>
     <t>preds2</t>
-  </si>
-  <si>
-    <t>Automatic_Predictions</t>
-  </si>
-  <si>
-    <t>'High'</t>
-  </si>
-  <si>
-    <t>'Low'</t>
   </si>
 </sst>
 </file>
@@ -1557,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1011D31-58D4-4B8E-92D6-B0014F3FB32B}">
-  <dimension ref="A1:E382"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1563,7 @@
     <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1585,11 +1576,8 @@
       <c r="D1" t="s">
         <v>387</v>
       </c>
-      <c r="E1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1602,11 +1590,8 @@
       <c r="D2" t="s">
         <v>255</v>
       </c>
-      <c r="E2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1619,11 +1604,8 @@
       <c r="D3" t="s">
         <v>255</v>
       </c>
-      <c r="E3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1636,11 +1618,8 @@
       <c r="D4" t="s">
         <v>256</v>
       </c>
-      <c r="E4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1653,11 +1632,8 @@
       <c r="D5" t="s">
         <v>255</v>
       </c>
-      <c r="E5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1670,11 +1646,8 @@
       <c r="D6" t="s">
         <v>255</v>
       </c>
-      <c r="E6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1687,11 +1660,8 @@
       <c r="D7" t="s">
         <v>255</v>
       </c>
-      <c r="E7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1704,11 +1674,8 @@
       <c r="D8" t="s">
         <v>255</v>
       </c>
-      <c r="E8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1721,11 +1688,8 @@
       <c r="D9" t="s">
         <v>256</v>
       </c>
-      <c r="E9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1738,11 +1702,8 @@
       <c r="D10" t="s">
         <v>256</v>
       </c>
-      <c r="E10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1755,11 +1716,8 @@
       <c r="D11" t="s">
         <v>255</v>
       </c>
-      <c r="E11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1772,11 +1730,8 @@
       <c r="D12" t="s">
         <v>256</v>
       </c>
-      <c r="E12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1789,11 +1744,8 @@
       <c r="D13" t="s">
         <v>255</v>
       </c>
-      <c r="E13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1806,11 +1758,8 @@
       <c r="D14" t="s">
         <v>255</v>
       </c>
-      <c r="E14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1823,11 +1772,8 @@
       <c r="D15" t="s">
         <v>256</v>
       </c>
-      <c r="E15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1840,11 +1786,8 @@
       <c r="D16" t="s">
         <v>255</v>
       </c>
-      <c r="E16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1857,11 +1800,8 @@
       <c r="D17" t="s">
         <v>256</v>
       </c>
-      <c r="E17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1874,11 +1814,8 @@
       <c r="D18" t="s">
         <v>256</v>
       </c>
-      <c r="E18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1891,11 +1828,8 @@
       <c r="D19" t="s">
         <v>255</v>
       </c>
-      <c r="E19" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1908,11 +1842,8 @@
       <c r="D20" t="s">
         <v>255</v>
       </c>
-      <c r="E20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1925,11 +1856,8 @@
       <c r="D21" t="s">
         <v>256</v>
       </c>
-      <c r="E21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1942,11 +1870,8 @@
       <c r="D22" t="s">
         <v>255</v>
       </c>
-      <c r="E22" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1959,11 +1884,8 @@
       <c r="D23" t="s">
         <v>256</v>
       </c>
-      <c r="E23" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1976,11 +1898,8 @@
       <c r="D24" t="s">
         <v>255</v>
       </c>
-      <c r="E24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1993,11 +1912,8 @@
       <c r="D25" t="s">
         <v>255</v>
       </c>
-      <c r="E25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2010,11 +1926,8 @@
       <c r="D26" t="s">
         <v>255</v>
       </c>
-      <c r="E26" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2027,11 +1940,8 @@
       <c r="D27" t="s">
         <v>256</v>
       </c>
-      <c r="E27" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2044,11 +1954,8 @@
       <c r="D28" t="s">
         <v>256</v>
       </c>
-      <c r="E28" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2061,11 +1968,8 @@
       <c r="D29" t="s">
         <v>256</v>
       </c>
-      <c r="E29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2078,11 +1982,8 @@
       <c r="D30" t="s">
         <v>255</v>
       </c>
-      <c r="E30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2095,11 +1996,8 @@
       <c r="D31" t="s">
         <v>255</v>
       </c>
-      <c r="E31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2112,11 +2010,8 @@
       <c r="D32" t="s">
         <v>255</v>
       </c>
-      <c r="E32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2129,11 +2024,8 @@
       <c r="D33" t="s">
         <v>255</v>
       </c>
-      <c r="E33" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2146,11 +2038,8 @@
       <c r="D34" t="s">
         <v>255</v>
       </c>
-      <c r="E34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2163,11 +2052,8 @@
       <c r="D35" t="s">
         <v>255</v>
       </c>
-      <c r="E35" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2180,11 +2066,8 @@
       <c r="D36" t="s">
         <v>255</v>
       </c>
-      <c r="E36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2197,11 +2080,8 @@
       <c r="D37" t="s">
         <v>256</v>
       </c>
-      <c r="E37" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2214,11 +2094,8 @@
       <c r="D38" t="s">
         <v>255</v>
       </c>
-      <c r="E38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2231,11 +2108,8 @@
       <c r="D39" t="s">
         <v>255</v>
       </c>
-      <c r="E39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2248,11 +2122,8 @@
       <c r="D40" t="s">
         <v>256</v>
       </c>
-      <c r="E40" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2265,11 +2136,8 @@
       <c r="D41" t="s">
         <v>256</v>
       </c>
-      <c r="E41" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2282,11 +2150,8 @@
       <c r="D42" t="s">
         <v>256</v>
       </c>
-      <c r="E42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2299,11 +2164,8 @@
       <c r="D43" t="s">
         <v>256</v>
       </c>
-      <c r="E43" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2316,11 +2178,8 @@
       <c r="D44" t="s">
         <v>256</v>
       </c>
-      <c r="E44" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2333,11 +2192,8 @@
       <c r="D45" t="s">
         <v>256</v>
       </c>
-      <c r="E45" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2350,11 +2206,8 @@
       <c r="D46" t="s">
         <v>256</v>
       </c>
-      <c r="E46" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2367,11 +2220,8 @@
       <c r="D47" t="s">
         <v>256</v>
       </c>
-      <c r="E47" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2384,11 +2234,8 @@
       <c r="D48" t="s">
         <v>256</v>
       </c>
-      <c r="E48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2401,11 +2248,8 @@
       <c r="D49" t="s">
         <v>256</v>
       </c>
-      <c r="E49" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2418,11 +2262,8 @@
       <c r="D50" t="s">
         <v>256</v>
       </c>
-      <c r="E50" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2435,11 +2276,8 @@
       <c r="D51" t="s">
         <v>255</v>
       </c>
-      <c r="E51" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2452,11 +2290,8 @@
       <c r="D52" t="s">
         <v>256</v>
       </c>
-      <c r="E52" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2469,11 +2304,8 @@
       <c r="D53" t="s">
         <v>255</v>
       </c>
-      <c r="E53" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2486,11 +2318,8 @@
       <c r="D54" t="s">
         <v>256</v>
       </c>
-      <c r="E54" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2503,11 +2332,8 @@
       <c r="D55" t="s">
         <v>256</v>
       </c>
-      <c r="E55" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2520,11 +2346,8 @@
       <c r="D56" t="s">
         <v>256</v>
       </c>
-      <c r="E56" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2537,11 +2360,8 @@
       <c r="D57" t="s">
         <v>256</v>
       </c>
-      <c r="E57" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2554,11 +2374,8 @@
       <c r="D58" t="s">
         <v>256</v>
       </c>
-      <c r="E58" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2571,11 +2388,8 @@
       <c r="D59" t="s">
         <v>256</v>
       </c>
-      <c r="E59" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2588,11 +2402,8 @@
       <c r="D60" t="s">
         <v>256</v>
       </c>
-      <c r="E60" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2605,11 +2416,8 @@
       <c r="D61" t="s">
         <v>255</v>
       </c>
-      <c r="E61" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2622,11 +2430,8 @@
       <c r="D62" t="s">
         <v>256</v>
       </c>
-      <c r="E62" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2639,11 +2444,8 @@
       <c r="D63" t="s">
         <v>256</v>
       </c>
-      <c r="E63" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2656,11 +2458,8 @@
       <c r="D64" t="s">
         <v>256</v>
       </c>
-      <c r="E64" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2673,11 +2472,8 @@
       <c r="D65" t="s">
         <v>256</v>
       </c>
-      <c r="E65" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2690,11 +2486,8 @@
       <c r="D66" t="s">
         <v>256</v>
       </c>
-      <c r="E66" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2707,11 +2500,8 @@
       <c r="D67" t="s">
         <v>255</v>
       </c>
-      <c r="E67" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2724,11 +2514,8 @@
       <c r="D68" t="s">
         <v>255</v>
       </c>
-      <c r="E68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2741,11 +2528,8 @@
       <c r="D69" t="s">
         <v>255</v>
       </c>
-      <c r="E69" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2758,11 +2542,8 @@
       <c r="D70" t="s">
         <v>255</v>
       </c>
-      <c r="E70" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2775,11 +2556,8 @@
       <c r="D71" t="s">
         <v>255</v>
       </c>
-      <c r="E71" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2792,11 +2570,8 @@
       <c r="D72" t="s">
         <v>256</v>
       </c>
-      <c r="E72" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2809,11 +2584,8 @@
       <c r="D73" t="s">
         <v>255</v>
       </c>
-      <c r="E73" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2826,11 +2598,8 @@
       <c r="D74" t="s">
         <v>255</v>
       </c>
-      <c r="E74" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2843,11 +2612,8 @@
       <c r="D75" t="s">
         <v>256</v>
       </c>
-      <c r="E75" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2860,11 +2626,8 @@
       <c r="D76" t="s">
         <v>255</v>
       </c>
-      <c r="E76" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2877,11 +2640,8 @@
       <c r="D77" t="s">
         <v>256</v>
       </c>
-      <c r="E77" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2894,11 +2654,8 @@
       <c r="D78" t="s">
         <v>255</v>
       </c>
-      <c r="E78" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2911,11 +2668,8 @@
       <c r="D79" t="s">
         <v>255</v>
       </c>
-      <c r="E79" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2928,11 +2682,8 @@
       <c r="D80" t="s">
         <v>255</v>
       </c>
-      <c r="E80" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2945,11 +2696,8 @@
       <c r="D81" t="s">
         <v>256</v>
       </c>
-      <c r="E81" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2962,11 +2710,8 @@
       <c r="D82" t="s">
         <v>255</v>
       </c>
-      <c r="E82" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2979,11 +2724,8 @@
       <c r="D83" t="s">
         <v>255</v>
       </c>
-      <c r="E83" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2996,11 +2738,8 @@
       <c r="D84" t="s">
         <v>255</v>
       </c>
-      <c r="E84" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3013,11 +2752,8 @@
       <c r="D85" t="s">
         <v>256</v>
       </c>
-      <c r="E85" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3030,11 +2766,8 @@
       <c r="D86" t="s">
         <v>256</v>
       </c>
-      <c r="E86" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3047,11 +2780,8 @@
       <c r="D87" t="s">
         <v>256</v>
       </c>
-      <c r="E87" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3064,11 +2794,8 @@
       <c r="D88" t="s">
         <v>255</v>
       </c>
-      <c r="E88" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3081,11 +2808,8 @@
       <c r="D89" t="s">
         <v>255</v>
       </c>
-      <c r="E89" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3098,11 +2822,8 @@
       <c r="D90" t="s">
         <v>256</v>
       </c>
-      <c r="E90" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3115,11 +2836,8 @@
       <c r="D91" t="s">
         <v>255</v>
       </c>
-      <c r="E91" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3132,11 +2850,8 @@
       <c r="D92" t="s">
         <v>256</v>
       </c>
-      <c r="E92" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3149,11 +2864,8 @@
       <c r="D93" t="s">
         <v>255</v>
       </c>
-      <c r="E93" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3166,11 +2878,8 @@
       <c r="D94" t="s">
         <v>255</v>
       </c>
-      <c r="E94" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3183,11 +2892,8 @@
       <c r="D95" t="s">
         <v>255</v>
       </c>
-      <c r="E95" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3200,11 +2906,8 @@
       <c r="D96" t="s">
         <v>255</v>
       </c>
-      <c r="E96" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3217,11 +2920,8 @@
       <c r="D97" t="s">
         <v>255</v>
       </c>
-      <c r="E97" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3234,11 +2934,8 @@
       <c r="D98" t="s">
         <v>256</v>
       </c>
-      <c r="E98" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3251,11 +2948,8 @@
       <c r="D99" t="s">
         <v>256</v>
       </c>
-      <c r="E99" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3268,11 +2962,8 @@
       <c r="D100" t="s">
         <v>256</v>
       </c>
-      <c r="E100" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3285,11 +2976,8 @@
       <c r="D101" t="s">
         <v>256</v>
       </c>
-      <c r="E101" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3302,11 +2990,8 @@
       <c r="D102" t="s">
         <v>256</v>
       </c>
-      <c r="E102" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3319,11 +3004,8 @@
       <c r="D103" t="s">
         <v>256</v>
       </c>
-      <c r="E103" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3336,11 +3018,8 @@
       <c r="D104" t="s">
         <v>256</v>
       </c>
-      <c r="E104" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3353,11 +3032,8 @@
       <c r="D105" t="s">
         <v>255</v>
       </c>
-      <c r="E105" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3370,11 +3046,8 @@
       <c r="D106" t="s">
         <v>255</v>
       </c>
-      <c r="E106" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3387,11 +3060,8 @@
       <c r="D107" t="s">
         <v>255</v>
       </c>
-      <c r="E107" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3404,11 +3074,8 @@
       <c r="D108" t="s">
         <v>255</v>
       </c>
-      <c r="E108" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3421,11 +3088,8 @@
       <c r="D109" t="s">
         <v>255</v>
       </c>
-      <c r="E109" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3438,11 +3102,8 @@
       <c r="D110" t="s">
         <v>256</v>
       </c>
-      <c r="E110" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3455,11 +3116,8 @@
       <c r="D111" t="s">
         <v>256</v>
       </c>
-      <c r="E111" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3472,11 +3130,8 @@
       <c r="D112" t="s">
         <v>256</v>
       </c>
-      <c r="E112" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3489,11 +3144,8 @@
       <c r="D113" t="s">
         <v>256</v>
       </c>
-      <c r="E113" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3506,11 +3158,8 @@
       <c r="D114" t="s">
         <v>256</v>
       </c>
-      <c r="E114" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3523,11 +3172,8 @@
       <c r="D115" t="s">
         <v>256</v>
       </c>
-      <c r="E115" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3540,11 +3186,8 @@
       <c r="D116" t="s">
         <v>256</v>
       </c>
-      <c r="E116" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3557,11 +3200,8 @@
       <c r="D117" t="s">
         <v>256</v>
       </c>
-      <c r="E117" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3574,11 +3214,8 @@
       <c r="D118" t="s">
         <v>256</v>
       </c>
-      <c r="E118" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3591,11 +3228,8 @@
       <c r="D119" t="s">
         <v>256</v>
       </c>
-      <c r="E119" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3608,11 +3242,8 @@
       <c r="D120" t="s">
         <v>256</v>
       </c>
-      <c r="E120" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3625,11 +3256,8 @@
       <c r="D121" t="s">
         <v>256</v>
       </c>
-      <c r="E121" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3642,11 +3270,8 @@
       <c r="D122" t="s">
         <v>256</v>
       </c>
-      <c r="E122" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3659,11 +3284,8 @@
       <c r="D123" t="s">
         <v>255</v>
       </c>
-      <c r="E123" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3676,11 +3298,8 @@
       <c r="D124" t="s">
         <v>256</v>
       </c>
-      <c r="E124" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3693,11 +3312,8 @@
       <c r="D125" t="s">
         <v>256</v>
       </c>
-      <c r="E125" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3710,11 +3326,8 @@
       <c r="D126" t="s">
         <v>256</v>
       </c>
-      <c r="E126" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3727,11 +3340,8 @@
       <c r="D127" t="s">
         <v>256</v>
       </c>
-      <c r="E127" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3744,11 +3354,8 @@
       <c r="D128" t="s">
         <v>256</v>
       </c>
-      <c r="E128" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3761,11 +3368,8 @@
       <c r="D129" t="s">
         <v>255</v>
       </c>
-      <c r="E129" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3778,11 +3382,8 @@
       <c r="D130" t="s">
         <v>256</v>
       </c>
-      <c r="E130" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3795,11 +3396,8 @@
       <c r="D131" t="s">
         <v>256</v>
       </c>
-      <c r="E131" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3812,11 +3410,8 @@
       <c r="D132" t="s">
         <v>256</v>
       </c>
-      <c r="E132" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3829,11 +3424,8 @@
       <c r="D133" t="s">
         <v>255</v>
       </c>
-      <c r="E133" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3846,11 +3438,8 @@
       <c r="D134" t="s">
         <v>255</v>
       </c>
-      <c r="E134" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3863,11 +3452,8 @@
       <c r="D135" t="s">
         <v>255</v>
       </c>
-      <c r="E135" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3880,11 +3466,8 @@
       <c r="D136" t="s">
         <v>256</v>
       </c>
-      <c r="E136" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3897,11 +3480,8 @@
       <c r="D137" t="s">
         <v>255</v>
       </c>
-      <c r="E137" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3914,11 +3494,8 @@
       <c r="D138" t="s">
         <v>255</v>
       </c>
-      <c r="E138" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3931,11 +3508,8 @@
       <c r="D139" t="s">
         <v>256</v>
       </c>
-      <c r="E139" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3948,11 +3522,8 @@
       <c r="D140" t="s">
         <v>255</v>
       </c>
-      <c r="E140" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3965,11 +3536,8 @@
       <c r="D141" t="s">
         <v>256</v>
       </c>
-      <c r="E141" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3982,11 +3550,8 @@
       <c r="D142" t="s">
         <v>255</v>
       </c>
-      <c r="E142" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3999,11 +3564,8 @@
       <c r="D143" t="s">
         <v>256</v>
       </c>
-      <c r="E143" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4016,11 +3578,8 @@
       <c r="D144" t="s">
         <v>255</v>
       </c>
-      <c r="E144" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4033,11 +3592,8 @@
       <c r="D145" t="s">
         <v>256</v>
       </c>
-      <c r="E145" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4050,11 +3606,8 @@
       <c r="D146" t="s">
         <v>256</v>
       </c>
-      <c r="E146" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4067,11 +3620,8 @@
       <c r="D147" t="s">
         <v>256</v>
       </c>
-      <c r="E147" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4084,11 +3634,8 @@
       <c r="D148" t="s">
         <v>255</v>
       </c>
-      <c r="E148" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4101,11 +3648,8 @@
       <c r="D149" t="s">
         <v>256</v>
       </c>
-      <c r="E149" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4118,11 +3662,8 @@
       <c r="D150" t="s">
         <v>255</v>
       </c>
-      <c r="E150" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4135,11 +3676,8 @@
       <c r="D151" t="s">
         <v>255</v>
       </c>
-      <c r="E151" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4152,11 +3690,8 @@
       <c r="D152" t="s">
         <v>255</v>
       </c>
-      <c r="E152" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4169,11 +3704,8 @@
       <c r="D153" t="s">
         <v>255</v>
       </c>
-      <c r="E153" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4186,11 +3718,8 @@
       <c r="D154" t="s">
         <v>256</v>
       </c>
-      <c r="E154" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4203,11 +3732,8 @@
       <c r="D155" t="s">
         <v>255</v>
       </c>
-      <c r="E155" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4220,11 +3746,8 @@
       <c r="D156" t="s">
         <v>255</v>
       </c>
-      <c r="E156" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4237,11 +3760,8 @@
       <c r="D157" t="s">
         <v>255</v>
       </c>
-      <c r="E157" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4254,11 +3774,8 @@
       <c r="D158" t="s">
         <v>255</v>
       </c>
-      <c r="E158" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4271,11 +3788,8 @@
       <c r="D159" t="s">
         <v>256</v>
       </c>
-      <c r="E159" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4288,11 +3802,8 @@
       <c r="D160" t="s">
         <v>255</v>
       </c>
-      <c r="E160" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4305,11 +3816,8 @@
       <c r="D161" t="s">
         <v>255</v>
       </c>
-      <c r="E161" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4322,11 +3830,8 @@
       <c r="D162" t="s">
         <v>255</v>
       </c>
-      <c r="E162" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4339,11 +3844,8 @@
       <c r="D163" t="s">
         <v>255</v>
       </c>
-      <c r="E163" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4356,11 +3858,8 @@
       <c r="D164" t="s">
         <v>255</v>
       </c>
-      <c r="E164" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4373,11 +3872,8 @@
       <c r="D165" t="s">
         <v>255</v>
       </c>
-      <c r="E165" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4390,11 +3886,8 @@
       <c r="D166" t="s">
         <v>255</v>
       </c>
-      <c r="E166" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4407,11 +3900,8 @@
       <c r="D167" t="s">
         <v>256</v>
       </c>
-      <c r="E167" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4424,11 +3914,8 @@
       <c r="D168" t="s">
         <v>256</v>
       </c>
-      <c r="E168" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4441,11 +3928,8 @@
       <c r="D169" t="s">
         <v>255</v>
       </c>
-      <c r="E169" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4458,11 +3942,8 @@
       <c r="D170" t="s">
         <v>255</v>
       </c>
-      <c r="E170" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4475,11 +3956,8 @@
       <c r="D171" t="s">
         <v>256</v>
       </c>
-      <c r="E171" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4492,11 +3970,8 @@
       <c r="D172" t="s">
         <v>255</v>
       </c>
-      <c r="E172" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4509,11 +3984,8 @@
       <c r="D173" t="s">
         <v>255</v>
       </c>
-      <c r="E173" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4526,11 +3998,8 @@
       <c r="D174" t="s">
         <v>255</v>
       </c>
-      <c r="E174" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4543,11 +4012,8 @@
       <c r="D175" t="s">
         <v>255</v>
       </c>
-      <c r="E175" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4560,11 +4026,8 @@
       <c r="D176" t="s">
         <v>255</v>
       </c>
-      <c r="E176" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4577,11 +4040,8 @@
       <c r="D177" t="s">
         <v>255</v>
       </c>
-      <c r="E177" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4594,11 +4054,8 @@
       <c r="D178" t="s">
         <v>255</v>
       </c>
-      <c r="E178" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4611,11 +4068,8 @@
       <c r="D179" t="s">
         <v>256</v>
       </c>
-      <c r="E179" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4628,11 +4082,8 @@
       <c r="D180" t="s">
         <v>256</v>
       </c>
-      <c r="E180" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4645,11 +4096,8 @@
       <c r="D181" t="s">
         <v>256</v>
       </c>
-      <c r="E181" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4662,11 +4110,8 @@
       <c r="D182" t="s">
         <v>255</v>
       </c>
-      <c r="E182" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4679,11 +4124,8 @@
       <c r="D183" t="s">
         <v>256</v>
       </c>
-      <c r="E183" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4696,11 +4138,8 @@
       <c r="D184" t="s">
         <v>255</v>
       </c>
-      <c r="E184" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4713,11 +4152,8 @@
       <c r="D185" t="s">
         <v>255</v>
       </c>
-      <c r="E185" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4730,11 +4166,8 @@
       <c r="D186" t="s">
         <v>255</v>
       </c>
-      <c r="E186" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4747,11 +4180,8 @@
       <c r="D187" t="s">
         <v>256</v>
       </c>
-      <c r="E187" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4764,11 +4194,8 @@
       <c r="D188" t="s">
         <v>255</v>
       </c>
-      <c r="E188" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4781,11 +4208,8 @@
       <c r="D189" t="s">
         <v>255</v>
       </c>
-      <c r="E189" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4798,11 +4222,8 @@
       <c r="D190" t="s">
         <v>255</v>
       </c>
-      <c r="E190" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4815,11 +4236,8 @@
       <c r="D191" t="s">
         <v>255</v>
       </c>
-      <c r="E191" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4832,11 +4250,8 @@
       <c r="D192" t="s">
         <v>255</v>
       </c>
-      <c r="E192" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4849,11 +4264,8 @@
       <c r="D193" t="s">
         <v>256</v>
       </c>
-      <c r="E193" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4866,11 +4278,8 @@
       <c r="D194" t="s">
         <v>255</v>
       </c>
-      <c r="E194" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4883,11 +4292,8 @@
       <c r="D195" t="s">
         <v>255</v>
       </c>
-      <c r="E195" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4900,11 +4306,8 @@
       <c r="D196" t="s">
         <v>255</v>
       </c>
-      <c r="E196" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4917,11 +4320,8 @@
       <c r="D197" t="s">
         <v>256</v>
       </c>
-      <c r="E197" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4934,11 +4334,8 @@
       <c r="D198" t="s">
         <v>256</v>
       </c>
-      <c r="E198" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4951,11 +4348,8 @@
       <c r="D199" t="s">
         <v>255</v>
       </c>
-      <c r="E199" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4968,11 +4362,8 @@
       <c r="D200" t="s">
         <v>256</v>
       </c>
-      <c r="E200" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4985,11 +4376,8 @@
       <c r="D201" t="s">
         <v>255</v>
       </c>
-      <c r="E201" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -5002,11 +4390,8 @@
       <c r="D202" t="s">
         <v>256</v>
       </c>
-      <c r="E202" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -5019,11 +4404,8 @@
       <c r="D203" t="s">
         <v>255</v>
       </c>
-      <c r="E203" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -5036,11 +4418,8 @@
       <c r="D204" t="s">
         <v>256</v>
       </c>
-      <c r="E204" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -5053,11 +4432,8 @@
       <c r="D205" t="s">
         <v>256</v>
       </c>
-      <c r="E205" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -5070,11 +4446,8 @@
       <c r="D206" t="s">
         <v>255</v>
       </c>
-      <c r="E206" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -5087,11 +4460,8 @@
       <c r="D207" t="s">
         <v>256</v>
       </c>
-      <c r="E207" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -5104,11 +4474,8 @@
       <c r="D208" t="s">
         <v>255</v>
       </c>
-      <c r="E208" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -5121,11 +4488,8 @@
       <c r="D209" t="s">
         <v>255</v>
       </c>
-      <c r="E209" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -5138,11 +4502,8 @@
       <c r="D210" t="s">
         <v>255</v>
       </c>
-      <c r="E210" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -5155,11 +4516,8 @@
       <c r="D211" t="s">
         <v>256</v>
       </c>
-      <c r="E211" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5172,11 +4530,8 @@
       <c r="D212" t="s">
         <v>256</v>
       </c>
-      <c r="E212" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -5189,11 +4544,8 @@
       <c r="D213" t="s">
         <v>256</v>
       </c>
-      <c r="E213" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -5206,11 +4558,8 @@
       <c r="D214" t="s">
         <v>255</v>
       </c>
-      <c r="E214" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -5223,11 +4572,8 @@
       <c r="D215" t="s">
         <v>255</v>
       </c>
-      <c r="E215" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -5240,11 +4586,8 @@
       <c r="D216" t="s">
         <v>255</v>
       </c>
-      <c r="E216" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -5257,11 +4600,8 @@
       <c r="D217" t="s">
         <v>255</v>
       </c>
-      <c r="E217" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -5274,11 +4614,8 @@
       <c r="D218" t="s">
         <v>256</v>
       </c>
-      <c r="E218" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -5291,11 +4628,8 @@
       <c r="D219" t="s">
         <v>256</v>
       </c>
-      <c r="E219" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -5308,11 +4642,8 @@
       <c r="D220" t="s">
         <v>255</v>
       </c>
-      <c r="E220" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -5325,11 +4656,8 @@
       <c r="D221" t="s">
         <v>256</v>
       </c>
-      <c r="E221" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -5342,11 +4670,8 @@
       <c r="D222" t="s">
         <v>256</v>
       </c>
-      <c r="E222" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -5359,11 +4684,8 @@
       <c r="D223" t="s">
         <v>255</v>
       </c>
-      <c r="E223" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -5376,11 +4698,8 @@
       <c r="D224" t="s">
         <v>255</v>
       </c>
-      <c r="E224" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -5393,11 +4712,8 @@
       <c r="D225" t="s">
         <v>256</v>
       </c>
-      <c r="E225" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -5410,11 +4726,8 @@
       <c r="D226" t="s">
         <v>255</v>
       </c>
-      <c r="E226" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -5427,11 +4740,8 @@
       <c r="D227" t="s">
         <v>256</v>
       </c>
-      <c r="E227" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5444,11 +4754,8 @@
       <c r="D228" t="s">
         <v>255</v>
       </c>
-      <c r="E228" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5461,11 +4768,8 @@
       <c r="D229" t="s">
         <v>255</v>
       </c>
-      <c r="E229" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5478,11 +4782,8 @@
       <c r="D230" t="s">
         <v>255</v>
       </c>
-      <c r="E230" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5495,11 +4796,8 @@
       <c r="D231" t="s">
         <v>255</v>
       </c>
-      <c r="E231" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5512,11 +4810,8 @@
       <c r="D232" t="s">
         <v>255</v>
       </c>
-      <c r="E232" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5529,11 +4824,8 @@
       <c r="D233" t="s">
         <v>255</v>
       </c>
-      <c r="E233" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5546,11 +4838,8 @@
       <c r="D234" t="s">
         <v>256</v>
       </c>
-      <c r="E234" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5563,11 +4852,8 @@
       <c r="D235" t="s">
         <v>256</v>
       </c>
-      <c r="E235" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5580,11 +4866,8 @@
       <c r="D236" t="s">
         <v>255</v>
       </c>
-      <c r="E236" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5597,11 +4880,8 @@
       <c r="D237" t="s">
         <v>255</v>
       </c>
-      <c r="E237" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5614,11 +4894,8 @@
       <c r="D238" t="s">
         <v>255</v>
       </c>
-      <c r="E238" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5631,11 +4908,8 @@
       <c r="D239" t="s">
         <v>256</v>
       </c>
-      <c r="E239" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5648,11 +4922,8 @@
       <c r="D240" t="s">
         <v>256</v>
       </c>
-      <c r="E240" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5665,11 +4936,8 @@
       <c r="D241" t="s">
         <v>256</v>
       </c>
-      <c r="E241" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5682,11 +4950,8 @@
       <c r="D242" t="s">
         <v>256</v>
       </c>
-      <c r="E242" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5699,11 +4964,8 @@
       <c r="D243" t="s">
         <v>256</v>
       </c>
-      <c r="E243" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5716,11 +4978,8 @@
       <c r="D244" t="s">
         <v>255</v>
       </c>
-      <c r="E244" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5733,11 +4992,8 @@
       <c r="D245" t="s">
         <v>255</v>
       </c>
-      <c r="E245" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5750,11 +5006,8 @@
       <c r="D246" t="s">
         <v>256</v>
       </c>
-      <c r="E246" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5767,11 +5020,8 @@
       <c r="D247" t="s">
         <v>256</v>
       </c>
-      <c r="E247" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5784,11 +5034,8 @@
       <c r="D248" t="s">
         <v>255</v>
       </c>
-      <c r="E248" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5801,11 +5048,8 @@
       <c r="D249" t="s">
         <v>256</v>
       </c>
-      <c r="E249" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5818,11 +5062,8 @@
       <c r="D250" t="s">
         <v>256</v>
       </c>
-      <c r="E250" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5835,11 +5076,8 @@
       <c r="D251" t="s">
         <v>255</v>
       </c>
-      <c r="E251" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5852,11 +5090,8 @@
       <c r="D252" t="s">
         <v>255</v>
       </c>
-      <c r="E252" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5869,11 +5104,8 @@
       <c r="D253" t="s">
         <v>256</v>
       </c>
-      <c r="E253" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5886,11 +5118,8 @@
       <c r="D254" t="s">
         <v>256</v>
       </c>
-      <c r="E254" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -5904,7 +5133,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>260</v>
       </c>
